--- a/Diagram.xlsx
+++ b/Diagram.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1E0AAF-D6FF-4D94-9F2D-1C83ED36C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Desktop\magisterka\semestr 3\zarzadzanie projektem informatyczny\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1F92D8-A1C9-4207-A4CC-B059B81AC855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Sprint 1 - Przykład realizacji</t>
   </si>
@@ -130,13 +135,28 @@
   </si>
   <si>
     <t>idealne dziennie spalanie</t>
+  </si>
+  <si>
+    <t>Dzień 10</t>
+  </si>
+  <si>
+    <t>Dzień 11</t>
+  </si>
+  <si>
+    <t>Dzień 12</t>
+  </si>
+  <si>
+    <t>Dzień 13</t>
+  </si>
+  <si>
+    <t>Dzień 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +178,12 @@
       <name val="Google Sans Text"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -238,7 +264,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -266,31 +314,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Sprint 1 - spalanie</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -316,7 +339,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -343,7 +366,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="637CEF"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -354,36 +377,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$15:$M$15</c:f>
+              <c:f>Arkusz1!$E$15:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>29.4</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>75.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>67.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>59.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,7 +420,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB61-41FF-AF5E-261235D4B39D}"/>
+              <c16:uniqueId val="{00000000-F9B2-43B5-B5E1-5A6F5A978F37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -412,7 +441,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="E3008C"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -423,36 +452,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$E$16:$M$16</c:f>
+              <c:f>Arkusz1!$E$16:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26.133333333333333</c:v>
+                  <c:v>83.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.866666666666667</c:v>
+                  <c:v>75.63636363636364</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.600000000000001</c:v>
+                  <c:v>68.072727272727278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.333333333333336</c:v>
+                  <c:v>60.509090909090915</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.06666666666667</c:v>
+                  <c:v>52.945454545454552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8000000000000043</c:v>
+                  <c:v>45.38181818181819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5333333333333377</c:v>
+                  <c:v>37.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.266666666666671</c:v>
+                  <c:v>30.254545454545465</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>22.690909090909102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.127272727272739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5636363636363759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,7 +495,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BB61-41FF-AF5E-261235D4B39D}"/>
+              <c16:uniqueId val="{00000001-F9B2-43B5-B5E1-5A6F5A978F37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -473,16 +508,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1539976712"/>
-        <c:axId val="1539986952"/>
+        <c:axId val="1000187983"/>
+        <c:axId val="1000196143"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1539976712"/>
+        <c:axId val="1000187983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -516,10 +552,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1539986952"/>
+        <c:crossAx val="1000196143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,7 +563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1539986952"/>
+        <c:axId val="1000196143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -575,10 +611,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1539976712"/>
+        <c:crossAx val="1000187983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,7 +653,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -647,7 +683,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -659,28 +695,42 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10000">
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="2AA0A4"/>
-  <a:srgbClr val="9373C0"/>
-  <a:srgbClr val="13A10E"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="CA5010"/>
-  <a:srgbClr val="57811B"/>
-  <a:srgbClr val="B146C2"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="AE8C00"/>
-  <a:srgbClr val="637CEF"/>
-  <a:srgbClr val="EE5FB7"/>
-  <a:srgbClr val="008B94"/>
-  <a:srgbClr val="D77440"/>
-  <a:srgbClr val="BA58C9"/>
-  <a:srgbClr val="3A96DD"/>
-  <a:srgbClr val="E3008C"/>
-  <a:srgbClr val="C36BD1"/>
-  <a:srgbClr val="D06228"/>
-  <a:srgbClr val="57811B"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1204,23 +1254,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50947206-C7F3-02EC-77E9-7E7364612A46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A6B4C4-A98F-0FC7-229A-86C3AE13469F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,25 +1608,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:M16"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="33">
+    <row r="2" spans="1:18" ht="30">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1616,8 +1670,23 @@
       <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1633,8 +1702,13 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -1648,13 +1722,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="9">
-        <v>2.4</v>
+        <v>20</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1674,8 +1748,23 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1689,16 +1778,16 @@
         <v>18</v>
       </c>
       <c r="E5" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1715,8 +1804,23 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1725,19 +1829,19 @@
       <c r="D6" s="4"/>
       <c r="E6" s="1">
         <f>SUM(E4:E5)</f>
-        <v>4.4000000000000004</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" ref="F6:M6" si="0">SUM(F4:F5)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
@@ -1759,8 +1863,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="N6" s="1">
+        <f>SUM(N4:N5)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUM(O4:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f>SUM(P4:P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>SUM(Q4:Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <f>SUM(R4:R5)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1774,34 +1898,49 @@
         <v>18</v>
       </c>
       <c r="E7" s="9">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7">
+        <v>15</v>
+      </c>
+      <c r="K7" s="7">
+        <v>9</v>
+      </c>
+      <c r="L7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1815,34 +1954,49 @@
         <v>18</v>
       </c>
       <c r="E8" s="9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" s="8">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G8" s="8">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H8" s="8">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7">
+        <v>11</v>
+      </c>
+      <c r="L8" s="7">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5</v>
+      </c>
+      <c r="O8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1856,19 +2010,19 @@
         <v>18</v>
       </c>
       <c r="E9" s="9">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F9" s="8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G9" s="8">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H9" s="8">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1882,8 +2036,23 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1892,42 +2061,62 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1">
         <f>SUM(E7:E9)</f>
-        <v>13</v>
+        <v>31.2</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:M10" si="1">SUM(F7:F9)</f>
-        <v>12</v>
+        <f t="shared" ref="F10:R10" si="1">SUM(F7:F9)</f>
+        <v>31.2</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>31.2</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>31.2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <f>SUM(N7:N9)</f>
+        <v>5</v>
+      </c>
+      <c r="O10" s="1">
+        <f>SUM(O7:O9)</f>
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1941,16 +2130,16 @@
         <v>18</v>
       </c>
       <c r="E11" s="9">
-        <v>3</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>4</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1967,8 +2156,23 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
@@ -1982,25 +2186,25 @@
         <v>18</v>
       </c>
       <c r="E12" s="9">
-        <v>4</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8">
-        <v>4</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="9">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
+        <v>12</v>
+      </c>
+      <c r="H12" s="9">
+        <v>12</v>
       </c>
       <c r="I12" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K12" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -2008,8 +2212,23 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2023,154 +2242,229 @@
         <v>18</v>
       </c>
       <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8</v>
       </c>
       <c r="I13" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K13" s="8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L13" s="8">
-        <v>3</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="M13" s="7">
+        <v>6</v>
+      </c>
+      <c r="N13" s="7">
+        <v>2</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="R13" s="7">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="1">
         <f>SUM(E11:E13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:M14" si="2">SUM(F11:F13)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="N14" s="1">
+        <f>SUM(N11:N13)</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <f>SUM(O11:O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:R14" si="3">SUM(P11:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:18">
       <c r="D15" t="s">
         <v>30</v>
       </c>
       <c r="E15">
         <f>E4+E5+E7+E8+E9+E11+E12+E13</f>
-        <v>29.4</v>
+        <v>83.2</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:M15" si="3">F4+F5+F7+F8+F9+F11+F12+F13</f>
-        <v>27</v>
+        <f t="shared" ref="F15:R15" si="4">F4+F5+F7+F8+F9+F11+F12+F13</f>
+        <v>75.2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>67.2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>59.2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>46</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>33</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:18">
       <c r="D16" t="s">
         <v>31</v>
       </c>
       <c r="E16">
-        <f>IF(E15-$C$18&lt;0,0,E15-$C$18)</f>
-        <v>26.133333333333333</v>
+        <f>E15</f>
+        <v>83.2</v>
       </c>
       <c r="F16">
-        <f>IF(E15-$C$18&lt;0,0,E16-$C$18)</f>
-        <v>22.866666666666667</v>
+        <f>IF(E16-$C$18&lt;0,0,E16-$C$18)</f>
+        <v>75.63636363636364</v>
       </c>
       <c r="G16">
-        <f>IF(F15-$C$18&lt;0,0,F16-$C$18)</f>
-        <v>19.600000000000001</v>
+        <f t="shared" ref="G16:R16" si="5">IF(F16-$C$18&lt;0,0,F16-$C$18)</f>
+        <v>68.072727272727278</v>
       </c>
       <c r="H16">
-        <f>IF(G15-$C$18&lt;0,0,G16-$C$18)</f>
-        <v>16.333333333333336</v>
+        <f t="shared" si="5"/>
+        <v>60.509090909090915</v>
       </c>
       <c r="I16">
-        <f>IF(H15-$C$18&lt;0,0,H16-$C$18)</f>
-        <v>13.06666666666667</v>
+        <f t="shared" si="5"/>
+        <v>52.945454545454552</v>
       </c>
       <c r="J16">
-        <f>IF(I15-$C$18&lt;0,0,I16-$C$18)</f>
-        <v>9.8000000000000043</v>
+        <f t="shared" si="5"/>
+        <v>45.38181818181819</v>
       </c>
       <c r="K16">
-        <f>IF(J15-$C$18&lt;0,0,J16-$C$18)</f>
-        <v>6.5333333333333377</v>
+        <f t="shared" si="5"/>
+        <v>37.818181818181827</v>
       </c>
       <c r="L16">
-        <f>IF(K15-$C$18&lt;0,0,K16-$C$18)</f>
-        <v>3.266666666666671</v>
+        <f t="shared" si="5"/>
+        <v>30.254545454545465</v>
       </c>
       <c r="M16">
-        <f>IF(L15-$C$18&lt;0,0,L16-$C$18)</f>
+        <f t="shared" si="5"/>
+        <v>22.690909090909102</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>15.127272727272739</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>7.5636363636363759</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1.2434497875801753E-14</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2181,12 +2475,22 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18">
-        <f>E15/9</f>
-        <v>3.2666666666666666</v>
+        <f>E15/11</f>
+        <v>7.5636363636363635</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E4:R5 E7:R9 E11:R13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>